--- a/biology/Zoologie/Clitaetra_episinoides/Clitaetra_episinoides.xlsx
+++ b/biology/Zoologie/Clitaetra_episinoides/Clitaetra_episinoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clitaetra episinoides est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clitaetra episinoides est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'archipel des Comores[1]. Elle se rencontre à Mayotte et à la Grande Comore[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'archipel des Comores. Elle se rencontre à Mayotte et à la Grande Comore.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle syntype mesure 7 mm[3].
-Le mâle décrit par Kuntner en 2006 mesure 4,9 mm et la femelle 7,9 mm, les mâles mesurent de 4,1 à 4,9 mm et les femelles de 4,9 à 9,0 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle syntype mesure 7 mm.
+Le mâle décrit par Kuntner en 2006 mesure 4,9 mm et la femelle 7,9 mm, les mâles mesurent de 4,1 à 4,9 mm et les femelles de 4,9 à 9,0 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Simon en 1889.
-Elle est l'espèce type du genre Clitaetra[1].
+Elle est l'espèce type du genre Clitaetra.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1889 : « Études arachnologiques. 21e Mémoire. XXXI. Descriptions d'espèces et de genres nouveaux de Madagascar et de Mayotte. » Annales de la Société Entomologique de France, sér. 6, vol. 8, p. 223-236 (texte intégral).</t>
         </is>
